--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/15/seed2/result_data_KNN.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.492</v>
+        <v>5.545</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.662000000000001</v>
+        <v>5.755999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.034</v>
+        <v>9.379000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.696</v>
+        <v>7.398999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.084</v>
+        <v>6.396</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.726</v>
+        <v>6.547</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.602</v>
+        <v>5.689</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>6.402000000000001</v>
+        <v>6.032</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.582</v>
+        <v>5.090999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.497999999999999</v>
+        <v>4.435</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.473999999999999</v>
+        <v>5.095</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.116</v>
+        <v>5.623</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.186000000000001</v>
+        <v>5.702</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>6.146</v>
+        <v>5.468999999999999</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.880000000000001</v>
+        <v>5.459</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
